--- a/data/scheduling_DNN/predict/0.9/result17.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result17.xlsx
@@ -570,10 +570,10 @@
         <v>1.278625011444092</v>
       </c>
       <c r="V2" t="n">
-        <v>0.503772497177124</v>
+        <v>0.8646275401115417</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6003963947296143</v>
+        <v>0.1713939011096954</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9315309524536133</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.5322614312171936</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3364161550998688</v>
+        <v>0.1594161540269852</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8728039264678955</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.8829888701438904</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02714605256915092</v>
+        <v>0.0001037330803228542</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8783209323883057</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.527700662612915</v>
       </c>
       <c r="W5" t="n">
-        <v>0.05061658844351768</v>
+        <v>0.1229345723986626</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.9347138404846191</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.3990438282489777</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1980446428060532</v>
+        <v>0.2869423925876617</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8745720386505127</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.8852254152297974</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03074010089039803</v>
+        <v>0.0001134944322984666</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8714470863342285</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.8689261078834534</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1203715279698372</v>
+        <v>6.355332516250201e-06</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8679490089416504</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.5040271282196045</v>
       </c>
       <c r="W9" t="n">
-        <v>0.116777315735817</v>
+        <v>0.132439136505127</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.9213850498199463</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.5109954476356506</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1576112359762192</v>
+        <v>0.1684196293354034</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8783540725708008</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.5238776803016663</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1393200606107712</v>
+        <v>0.1256535053253174</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8560359477996826</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.3998872041702271</v>
       </c>
       <c r="W12" t="n">
-        <v>0.04054003581404686</v>
+        <v>0.2080716788768768</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8662741184234619</v>
       </c>
       <c r="V13" t="n">
-        <v>0.371780127286911</v>
+        <v>0.8793404698371887</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2445243000984192</v>
+        <v>0.0001707295450614765</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9164319038391113</v>
       </c>
       <c r="V14" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.8701356053352356</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01345414668321609</v>
+        <v>0.002143347170203924</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9046680927276611</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.3990828990936279</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1431385427713394</v>
+        <v>0.2556163966655731</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8792328834533691</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.528283953666687</v>
       </c>
       <c r="W16" t="n">
-        <v>0.05078980699181557</v>
+        <v>0.1231651529669762</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9291579723358154</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.8894107341766357</v>
       </c>
       <c r="W17" t="n">
-        <v>0.179893359541893</v>
+        <v>0.001579842995852232</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.9192140102386475</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.8642578125</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3231432437896729</v>
+        <v>0.003020183648914099</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8607621192932129</v>
       </c>
       <c r="V19" t="n">
-        <v>0.417652815580368</v>
+        <v>0.8758253455162048</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1963458508253098</v>
+        <v>0.0002269007818540558</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9078121185302734</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.5285111665725708</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1100865602493286</v>
+        <v>0.1438692063093185</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>1.051532983779907</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.4025426506996155</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1581763923168182</v>
+        <v>0.4211884438991547</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.6805069446563721</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.5163449645042419</v>
       </c>
       <c r="W22" t="n">
-        <v>0.03610581904649734</v>
+        <v>0.02694915607571602</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5418510437011719</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.8762686252593994</v>
       </c>
       <c r="W23" t="n">
-        <v>0.001365486881695688</v>
+        <v>0.1118351221084595</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5207180976867676</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.531338632106781</v>
       </c>
       <c r="W24" t="n">
-        <v>0.003553193295374513</v>
+        <v>0.000112795751192607</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5262298583984375</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.8628854751586914</v>
       </c>
       <c r="W25" t="n">
-        <v>0.03079455159604549</v>
+        <v>0.1133370026946068</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5306339263916016</v>
       </c>
       <c r="V26" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.5207303762435913</v>
       </c>
       <c r="W26" t="n">
-        <v>0.07471992820501328</v>
+        <v>9.808030881686136e-05</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5293750762939453</v>
       </c>
       <c r="V27" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.5663649439811707</v>
       </c>
       <c r="W27" t="n">
-        <v>0.1992364376783371</v>
+        <v>0.001368250348605216</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5149459838867188</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.8713850975036621</v>
       </c>
       <c r="W28" t="n">
-        <v>0.003753158263862133</v>
+        <v>0.1270488351583481</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5228018760681152</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.8812806010246277</v>
       </c>
       <c r="W29" t="n">
-        <v>3.095523197771399e-06</v>
+        <v>0.1285070031881332</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5388278961181641</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.8745962977409363</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01315217092633247</v>
+        <v>0.1127404198050499</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.514962911605835</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.8668224215507507</v>
       </c>
       <c r="W31" t="n">
-        <v>0.003750179195776582</v>
+        <v>0.1238051131367683</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5909121036529541</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.5161492228507996</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01674467325210571</v>
+        <v>0.005589488428086042</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.51580810546875</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.5177642107009888</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03128980472683907</v>
+        <v>3.826347892754711e-06</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5174050331115723</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.4011215269565582</v>
       </c>
       <c r="W34" t="n">
-        <v>0.009978427551686764</v>
+        <v>0.01352185383439064</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.510145902633667</v>
       </c>
       <c r="V35" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.8655583262443542</v>
       </c>
       <c r="W35" t="n">
-        <v>0.216643750667572</v>
+        <v>0.1263179928064346</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5142719745635986</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.8694913983345032</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0005520718987099826</v>
+        <v>0.1261808425188065</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5140159130096436</v>
       </c>
       <c r="V37" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.4002149403095245</v>
       </c>
       <c r="W37" t="n">
-        <v>0.08182338625192642</v>
+        <v>0.0129506615921855</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5164780616760254</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.8674433827400208</v>
       </c>
       <c r="W38" t="n">
-        <v>0.004315393045544624</v>
+        <v>0.1231766566634178</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5160830020904541</v>
       </c>
       <c r="V39" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.5652798414230347</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01882105879485607</v>
+        <v>0.00242032902315259</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5140771865844727</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.3998819291591644</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0005422690301202238</v>
+        <v>0.01304055657237768</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5185961723327637</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.5160221457481384</v>
       </c>
       <c r="W41" t="n">
-        <v>0.000768182217143476</v>
+        <v>6.625612968491623e-06</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.404655933380127</v>
       </c>
       <c r="V42" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.8813244700431824</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1806464344263077</v>
+        <v>0.2272128909826279</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4719488620758057</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.3991880118846893</v>
       </c>
       <c r="W43" t="n">
-        <v>0.002950944937765598</v>
+        <v>0.005294141359627247</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3866188526153564</v>
       </c>
       <c r="V44" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.3990743160247803</v>
       </c>
       <c r="W44" t="n">
-        <v>0.1747464537620544</v>
+        <v>0.0001551385648781434</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3858962059020996</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.5240170359611511</v>
       </c>
       <c r="W45" t="n">
-        <v>0.04201023280620575</v>
+        <v>0.0190773643553257</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3848860263824463</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.8875957727432251</v>
       </c>
       <c r="W46" t="n">
-        <v>0.00623107748106122</v>
+        <v>0.2527170777320862</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3969569206237793</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.8864754438400269</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0004272844817023724</v>
+        <v>0.2396283894777298</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4113471508026123</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.8658577799797058</v>
       </c>
       <c r="W48" t="n">
-        <v>4.001362322014757e-05</v>
+        <v>0.2065799087285995</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4282140731811523</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.4011344313621521</v>
       </c>
       <c r="W49" t="n">
-        <v>0.003924734424799681</v>
+        <v>0.0007333069806918502</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3858199119567871</v>
       </c>
       <c r="V50" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.516058623790741</v>
       </c>
       <c r="W50" t="n">
-        <v>0.07208583503961563</v>
+        <v>0.01696212217211723</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3868610858917236</v>
       </c>
       <c r="V51" t="n">
-        <v>0.417663037776947</v>
+        <v>0.4002122581005096</v>
       </c>
       <c r="W51" t="n">
-        <v>0.0009487602510489523</v>
+        <v>0.0001782538020052016</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3860290050506592</v>
       </c>
       <c r="V52" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.8731123805046082</v>
       </c>
       <c r="W52" t="n">
-        <v>0.00019905086082872</v>
+        <v>0.2372502088546753</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3862721920013428</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.3996331691741943</v>
       </c>
       <c r="W53" t="n">
-        <v>0.001260592136532068</v>
+        <v>0.0001785157073754817</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3878300189971924</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.8741887211799622</v>
       </c>
       <c r="W54" t="n">
-        <v>0.001664516399614513</v>
+        <v>0.2365447878837585</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3859210014343262</v>
       </c>
       <c r="V55" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.3990951478481293</v>
       </c>
       <c r="W55" t="n">
-        <v>0.001234497642144561</v>
+        <v>0.0001735581317916512</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.409235954284668</v>
       </c>
       <c r="V56" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.8641420006752014</v>
       </c>
       <c r="W56" t="n">
-        <v>0.003418864216655493</v>
+        <v>0.2069395184516907</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3863928318023682</v>
       </c>
       <c r="V57" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.5287790298461914</v>
       </c>
       <c r="W57" t="n">
-        <v>1.003481884254143e-05</v>
+        <v>0.02027382887899876</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3872580528259277</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.3996532559394836</v>
       </c>
       <c r="W58" t="n">
-        <v>0.2037470936775208</v>
+        <v>0.0001536410563858226</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3912420272827148</v>
       </c>
       <c r="V59" t="n">
-        <v>0.655465304851532</v>
+        <v>0.3996504545211792</v>
       </c>
       <c r="W59" t="n">
-        <v>0.06981393694877625</v>
+        <v>7.070165156619623e-05</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3889451026916504</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.5323943495750427</v>
       </c>
       <c r="W60" t="n">
-        <v>0.01029114611446857</v>
+        <v>0.0205776859074831</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3869929313659668</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.8756425976753235</v>
       </c>
       <c r="W61" t="n">
-        <v>0.0009334356291219592</v>
+        <v>0.2387785017490387</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9583940505981445</v>
       </c>
       <c r="V62" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.8886366486549377</v>
       </c>
       <c r="W62" t="n">
-        <v>0.3244394659996033</v>
+        <v>0.004866095259785652</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.9060430526733398</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.4002009928226471</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1607368737459183</v>
+        <v>0.255876213312149</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8759150505065918</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.4004913866519928</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1486066281795502</v>
+        <v>0.2260276675224304</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8710899353027344</v>
       </c>
       <c r="V65" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.5255098938941956</v>
       </c>
       <c r="W65" t="n">
-        <v>0.004425319377332926</v>
+        <v>0.1194255650043488</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.882378101348877</v>
       </c>
       <c r="V66" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.8705270886421204</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2826269567012787</v>
+        <v>0.0001404465001542121</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8734641075134277</v>
       </c>
       <c r="V67" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.5230229496955872</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2524556219577789</v>
+        <v>0.1228090077638626</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8694069385528564</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.5290718674659729</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1181570962071419</v>
+        <v>0.1158279627561569</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.863152027130127</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.3999866247177124</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2625560462474823</v>
+        <v>0.2145221829414368</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8647668361663818</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.5314162373542786</v>
       </c>
       <c r="W70" t="n">
-        <v>0.07710782438516617</v>
+        <v>0.1111226230859756</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8711988925933838</v>
       </c>
       <c r="V71" t="n">
-        <v>0.576347291469574</v>
+        <v>0.88577800989151</v>
       </c>
       <c r="W71" t="n">
-        <v>0.08693746477365494</v>
+        <v>0.0002125506580341607</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8940391540527344</v>
       </c>
       <c r="V72" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.3990521430969238</v>
       </c>
       <c r="W72" t="n">
-        <v>0.272513210773468</v>
+        <v>0.2450121343135834</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.865178108215332</v>
       </c>
       <c r="V73" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.5203190445899963</v>
       </c>
       <c r="W73" t="n">
-        <v>0.02975144237279892</v>
+        <v>0.1189277768135071</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8620350360870361</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.4003019630908966</v>
       </c>
       <c r="W74" t="n">
-        <v>0.160729318857193</v>
+        <v>0.2131974250078201</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8610241413116455</v>
       </c>
       <c r="V75" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.3999921083450317</v>
       </c>
       <c r="W75" t="n">
-        <v>0.003169292351230979</v>
+        <v>0.2125505357980728</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8656890392303467</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.8776538968086243</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1617678254842758</v>
+        <v>0.0001431578129995614</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8706119060516357</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.3999222815036774</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1338945329189301</v>
+        <v>0.2215487211942673</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8628010749816895</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.8592832088470459</v>
       </c>
       <c r="W78" t="n">
-        <v>0.07587943226099014</v>
+        <v>1.237538253917592e-05</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8727540969848633</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.5186583995819092</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2433265000581741</v>
+        <v>0.1253837645053864</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8489360809326172</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.8710704445838928</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1052018404006958</v>
+        <v>0.0004899300402030349</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.857429027557373</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.8866857290267944</v>
       </c>
       <c r="W81" t="n">
-        <v>0.04161821305751801</v>
+        <v>0.00085595459677279</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5475618839263916</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.3999153971672058</v>
       </c>
       <c r="W82" t="n">
-        <v>0.003243445418775082</v>
+        <v>0.02179948426783085</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5223798751831055</v>
       </c>
       <c r="V83" t="n">
-        <v>0.97564297914505</v>
+        <v>0.4009974896907806</v>
       </c>
       <c r="W83" t="n">
-        <v>0.2054474353790283</v>
+        <v>0.0147336833178997</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5158839225769043</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.4002432525157928</v>
       </c>
       <c r="W84" t="n">
-        <v>0.005070621613413095</v>
+        <v>0.01337276492267847</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5178000926971436</v>
       </c>
       <c r="V85" t="n">
-        <v>0.490370512008667</v>
+        <v>0.5176266431808472</v>
       </c>
       <c r="W85" t="n">
-        <v>0.000752381922211498</v>
+        <v>3.008473470345052e-08</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5120930671691895</v>
       </c>
       <c r="V86" t="n">
-        <v>0.802417516708374</v>
+        <v>0.4026036262512207</v>
       </c>
       <c r="W86" t="n">
-        <v>0.08428828418254852</v>
+        <v>0.01198793761432171</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5679559707641602</v>
       </c>
       <c r="V87" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.8823509812355042</v>
       </c>
       <c r="W87" t="n">
-        <v>0.01964550092816353</v>
+        <v>0.09884422272443771</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.517035961151123</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.8668610453605652</v>
       </c>
       <c r="W88" t="n">
-        <v>0.009897243231534958</v>
+        <v>0.1223775893449783</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5192339420318604</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.4010992348194122</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02801751345396042</v>
+        <v>0.01395580917596817</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5150690078735352</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.4002284407615662</v>
       </c>
       <c r="W90" t="n">
-        <v>0.002628662623465061</v>
+        <v>0.01318835560232401</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5213170051574707</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.8761228919029236</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0002592269447632134</v>
+        <v>0.1258872151374817</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5186920166015625</v>
       </c>
       <c r="V92" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.4025750458240509</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01806844212114811</v>
+        <v>0.01348315086215734</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5181910991668701</v>
       </c>
       <c r="V93" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.8896270394325256</v>
       </c>
       <c r="W93" t="n">
-        <v>0.02158521302044392</v>
+        <v>0.1379646509885788</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5129578113555908</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.8726629018783569</v>
       </c>
       <c r="W94" t="n">
-        <v>0.0001405807415721938</v>
+        <v>0.1293877512216568</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5182981491088867</v>
       </c>
       <c r="V95" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.4037519097328186</v>
       </c>
       <c r="W95" t="n">
-        <v>0.02136460319161415</v>
+        <v>0.01312084123492241</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5157368183135986</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.8722389340400696</v>
       </c>
       <c r="W96" t="n">
-        <v>8.771591819822788e-05</v>
+        <v>0.1270937621593475</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.517038106918335</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.8738788366317749</v>
       </c>
       <c r="W97" t="n">
-        <v>6.036274135112762e-05</v>
+        <v>0.1273353099822998</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5660309791564941</v>
       </c>
       <c r="V98" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.8782088160514832</v>
       </c>
       <c r="W98" t="n">
-        <v>0.05548699572682381</v>
+        <v>0.09745500236749649</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5193438529968262</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.8892367482185364</v>
       </c>
       <c r="W99" t="n">
-        <v>0.003120507579296827</v>
+        <v>0.1368207484483719</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5185110569000244</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.4040760695934296</v>
       </c>
       <c r="W100" t="n">
-        <v>0.004110601730644703</v>
+        <v>0.01309536676853895</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5145349502563477</v>
       </c>
       <c r="V101" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.4968561828136444</v>
       </c>
       <c r="W101" t="n">
-        <v>0.08221179991960526</v>
+        <v>0.00031253881752491</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3960089683532715</v>
       </c>
       <c r="V102" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.3990830183029175</v>
       </c>
       <c r="W102" t="n">
-        <v>0.002398298587650061</v>
+        <v>9.449782737647183e-06</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3945181369781494</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.4004877507686615</v>
       </c>
       <c r="W103" t="n">
-        <v>0.06675181537866592</v>
+        <v>3.563628706615418e-05</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4094679355621338</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.4025779664516449</v>
       </c>
       <c r="W104" t="n">
-        <v>0.006620329339057207</v>
+        <v>4.747167258756235e-05</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.402616024017334</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.5220065712928772</v>
       </c>
       <c r="W105" t="n">
-        <v>0.03232033550739288</v>
+        <v>0.01425410248339176</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3881978988647461</v>
       </c>
       <c r="V106" t="n">
-        <v>0.699232816696167</v>
+        <v>0.5156813859939575</v>
       </c>
       <c r="W106" t="n">
-        <v>0.09674271941184998</v>
+        <v>0.01625203900039196</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3875870704650879</v>
       </c>
       <c r="V107" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.5184683799743652</v>
       </c>
       <c r="W107" t="n">
-        <v>0.1724628657102585</v>
+        <v>0.01712991669774055</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3868029117584229</v>
       </c>
       <c r="V108" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.3991909325122833</v>
       </c>
       <c r="W108" t="n">
-        <v>0.0002269546530442312</v>
+        <v>0.0001534630573587492</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3858330249786377</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.4002324044704437</v>
       </c>
       <c r="W109" t="n">
-        <v>0.04363493993878365</v>
+        <v>0.0002073421346722171</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.4380300045013428</v>
       </c>
       <c r="V110" t="n">
-        <v>0.505433976650238</v>
+        <v>0.5297220349311829</v>
       </c>
       <c r="W110" t="n">
-        <v>0.004543295595794916</v>
+        <v>0.008407428860664368</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3926200866699219</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.399092972278595</v>
       </c>
       <c r="W111" t="n">
-        <v>0.009668459184467793</v>
+        <v>4.189824903733097e-05</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4199950695037842</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.4010299742221832</v>
       </c>
       <c r="W112" t="n">
-        <v>0.01097881514579058</v>
+        <v>0.0003596748283598572</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3880131244659424</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.5070590376853943</v>
       </c>
       <c r="W113" t="n">
-        <v>0.005747329909354448</v>
+        <v>0.01417192909866571</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3906128406524658</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.5212339758872986</v>
       </c>
       <c r="W114" t="n">
-        <v>0.0343761034309864</v>
+        <v>0.01706188172101974</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.390388011932373</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.5189144611358643</v>
       </c>
       <c r="W115" t="n">
-        <v>0.0007343823672272265</v>
+        <v>0.01651904731988907</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.4383928775787354</v>
       </c>
       <c r="V116" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.400991678237915</v>
       </c>
       <c r="W116" t="n">
-        <v>0.004395070020109415</v>
+        <v>0.00139884976670146</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3909389972686768</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.8662975430488586</v>
       </c>
       <c r="W117" t="n">
-        <v>0.01801814511418343</v>
+        <v>0.22596575319767</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4151778221130371</v>
       </c>
       <c r="V118" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.5249655246734619</v>
       </c>
       <c r="W118" t="n">
-        <v>0.004147600382566452</v>
+        <v>0.01205333974212408</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3895719051361084</v>
       </c>
       <c r="V119" t="n">
-        <v>0.490907609462738</v>
+        <v>0.4004629254341125</v>
       </c>
       <c r="W119" t="n">
-        <v>0.01026892475783825</v>
+        <v>0.0001186143199447542</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3895649909973145</v>
       </c>
       <c r="V120" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.5161550641059875</v>
       </c>
       <c r="W120" t="n">
-        <v>0.2003254890441895</v>
+        <v>0.01602504588663578</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.390326976776123</v>
       </c>
       <c r="V121" t="n">
-        <v>0.975210964679718</v>
+        <v>0.8711357712745667</v>
       </c>
       <c r="W121" t="n">
-        <v>0.3420892655849457</v>
+        <v>0.2311770915985107</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.9526019096374512</v>
       </c>
       <c r="V122" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.5223548412322998</v>
       </c>
       <c r="W122" t="n">
-        <v>0.0226729866117239</v>
+        <v>0.1851125359535217</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9093990325927734</v>
       </c>
       <c r="V123" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.8738588094711304</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1477851867675781</v>
+        <v>0.001263107405975461</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8593389987945557</v>
       </c>
       <c r="V124" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.8866178393363953</v>
       </c>
       <c r="W124" t="n">
-        <v>0.003205419750884175</v>
+        <v>0.0007441351190209389</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8695569038391113</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.3999735116958618</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1441980302333832</v>
+        <v>0.2205085605382919</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.9181571006774902</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.3999664187431335</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1169341653585434</v>
+        <v>0.2685215771198273</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8750870227813721</v>
       </c>
       <c r="V127" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.3990921080112457</v>
       </c>
       <c r="W127" t="n">
-        <v>0.2748972177505493</v>
+        <v>0.2265711575746536</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8594310283660889</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.4010181128978729</v>
       </c>
       <c r="W128" t="n">
-        <v>0.070085309445858</v>
+        <v>0.2101424038410187</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8594059944152832</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.5217645764350891</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1951463669538498</v>
+        <v>0.1140017285943031</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9248340129852295</v>
       </c>
       <c r="V130" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.8811333775520325</v>
       </c>
       <c r="W130" t="n">
-        <v>0.3337520360946655</v>
+        <v>0.001909745507873595</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8627960681915283</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.5159023404121399</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1981692016124725</v>
+        <v>0.1203352585434914</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8653979301452637</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.3990761041641235</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1307912319898605</v>
+        <v>0.217456042766571</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8747179508209229</v>
       </c>
       <c r="V133" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.3991886079311371</v>
       </c>
       <c r="W133" t="n">
-        <v>0.04887528717517853</v>
+        <v>0.2261281609535217</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.9119360446929932</v>
       </c>
       <c r="V134" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.5204572081565857</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2914237380027771</v>
+        <v>0.1532556861639023</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8794970512390137</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.8667439818382263</v>
       </c>
       <c r="W135" t="n">
-        <v>0.08814693987369537</v>
+        <v>0.0001626407756702974</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8631889820098877</v>
       </c>
       <c r="V136" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.8708194494247437</v>
       </c>
       <c r="W136" t="n">
-        <v>0.2413172274827957</v>
+        <v>5.822403181809932e-05</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.859199047088623</v>
       </c>
       <c r="V137" t="n">
-        <v>0.35074183344841</v>
+        <v>0.3990869522094727</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2585287094116211</v>
+        <v>0.2117031365633011</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9220519065856934</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.5246709585189819</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1863633841276169</v>
+        <v>0.1579116135835648</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8635120391845703</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.40102818608284</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1600164324045181</v>
+        <v>0.2138913124799728</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9157559871673584</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.8873357772827148</v>
       </c>
       <c r="W140" t="n">
-        <v>0.06973754614591599</v>
+        <v>0.0008077083039097488</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8579831123352051</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.5198678970336914</v>
       </c>
       <c r="W141" t="n">
-        <v>0.04186271131038666</v>
+        <v>0.1143219023942947</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5923888683319092</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.525622546672821</v>
       </c>
       <c r="W142" t="n">
-        <v>0.01661477796733379</v>
+        <v>0.004457741510123014</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5218830108642578</v>
       </c>
       <c r="V143" t="n">
-        <v>0.524641752243042</v>
+        <v>0.8814254403114319</v>
       </c>
       <c r="W143" t="n">
-        <v>7.610653938172618e-06</v>
+        <v>0.1292707622051239</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5184571743011475</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.8635344505310059</v>
       </c>
       <c r="W144" t="n">
-        <v>0.03267659991979599</v>
+        <v>0.1190783232450485</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5126571655273438</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.5175662040710449</v>
       </c>
       <c r="W145" t="n">
-        <v>0.002615206176415086</v>
+        <v>2.409865919617005e-05</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5166079998016357</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.8738554120063782</v>
       </c>
       <c r="W146" t="n">
-        <v>0.009790671989321709</v>
+        <v>0.1276257187128067</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5250978469848633</v>
       </c>
       <c r="V147" t="n">
-        <v>0.708076536655426</v>
+        <v>0.5236489176750183</v>
       </c>
       <c r="W147" t="n">
-        <v>0.03348119929432869</v>
+        <v>2.099396169796819e-06</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5211939811706543</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.8743634223937988</v>
       </c>
       <c r="W148" t="n">
-        <v>1.368043103866512e-05</v>
+        <v>0.1247286573052406</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5191619396209717</v>
       </c>
       <c r="V149" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.8972771763801575</v>
       </c>
       <c r="W149" t="n">
-        <v>0.1038714200258255</v>
+        <v>0.1429711282253265</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5213170051574707</v>
       </c>
       <c r="V150" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.4004652798175812</v>
       </c>
       <c r="W150" t="n">
-        <v>0.07893548905849457</v>
+        <v>0.01460513938218355</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5128638744354248</v>
       </c>
       <c r="V151" t="n">
-        <v>0.838257908821106</v>
+        <v>0.8672617673873901</v>
       </c>
       <c r="W151" t="n">
-        <v>0.1058812811970711</v>
+        <v>0.1255978643894196</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5150089263916016</v>
       </c>
       <c r="V152" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.4009990692138672</v>
       </c>
       <c r="W152" t="n">
-        <v>0.02698364853858948</v>
+        <v>0.01299824751913548</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5721690654754639</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.5289639830589294</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01614228822290897</v>
+        <v>0.001866679172962904</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5184500217437744</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.4010141491889954</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0101606473326683</v>
+        <v>0.01379118394106627</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5217239856719971</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.5267022848129272</v>
       </c>
       <c r="W155" t="n">
-        <v>0.01084872428327799</v>
+        <v>2.478346323186997e-05</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5196211338043213</v>
       </c>
       <c r="V156" t="n">
-        <v>0.417653352022171</v>
+        <v>0.8741132020950317</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01039742864668369</v>
+        <v>0.125664621591568</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5197439193725586</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.5289496779441833</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0002603413304314017</v>
+        <v>8.474598871544003e-05</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5163350105285645</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.8783913850784302</v>
       </c>
       <c r="W158" t="n">
-        <v>0.0001393847196595743</v>
+        <v>0.1310848146677017</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5179429054260254</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.4001146852970123</v>
       </c>
       <c r="W159" t="n">
-        <v>0.00528694037348032</v>
+        <v>0.01388348918408155</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5239419937133789</v>
       </c>
       <c r="V160" t="n">
-        <v>0.652911365032196</v>
+        <v>0.4002525210380554</v>
       </c>
       <c r="W160" t="n">
-        <v>0.01663309894502163</v>
+        <v>0.01529908552765846</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5159420967102051</v>
       </c>
       <c r="V161" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.867020845413208</v>
       </c>
       <c r="W161" t="n">
-        <v>0.211263969540596</v>
+        <v>0.1232562884688377</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3954710960388184</v>
       </c>
       <c r="V162" t="n">
-        <v>0.800457239151001</v>
+        <v>0.566430389881134</v>
       </c>
       <c r="W162" t="n">
-        <v>0.1640137732028961</v>
+        <v>0.02922707982361317</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3907070159912109</v>
       </c>
       <c r="V163" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.5275163650512695</v>
       </c>
       <c r="W163" t="n">
-        <v>0.0001470752613386139</v>
+        <v>0.01871679723262787</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4388830661773682</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.3990717530250549</v>
       </c>
       <c r="W164" t="n">
-        <v>0.004482600837945938</v>
+        <v>0.001584940706379712</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3931200504302979</v>
       </c>
       <c r="V165" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.8695637583732605</v>
       </c>
       <c r="W165" t="n">
-        <v>0.3393145501613617</v>
+        <v>0.2269986122846603</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3911409378051758</v>
       </c>
       <c r="V166" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.3996328413486481</v>
       </c>
       <c r="W166" t="n">
-        <v>0.1675482243299484</v>
+        <v>7.211242336779833e-05</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3930919170379639</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.8730502724647522</v>
       </c>
       <c r="W167" t="n">
-        <v>0.004672279115766287</v>
+        <v>0.2303600162267685</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3961279392242432</v>
       </c>
       <c r="V168" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.5162349343299866</v>
       </c>
       <c r="W168" t="n">
-        <v>0.0003333471540827304</v>
+        <v>0.01442569028586149</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3914148807525635</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.4011120498180389</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01778845861554146</v>
+        <v>9.403508738614619e-05</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3975849151611328</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.8808660507202148</v>
       </c>
       <c r="W170" t="n">
-        <v>0.00439427187666297</v>
+        <v>0.2335606515407562</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3904650211334229</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.5065181255340576</v>
       </c>
       <c r="W171" t="n">
-        <v>0.001578002702444792</v>
+        <v>0.01346832327544689</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3915770053863525</v>
       </c>
       <c r="V172" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.8731259107589722</v>
       </c>
       <c r="W172" t="n">
-        <v>0.06851764023303986</v>
+        <v>0.2318893522024155</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3938140869140625</v>
       </c>
       <c r="V173" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.4027065336704254</v>
       </c>
       <c r="W173" t="n">
-        <v>0.3384509384632111</v>
+        <v>7.907560939202085e-05</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3942358493804932</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.545667827129364</v>
       </c>
       <c r="W174" t="n">
-        <v>0.08529059588909149</v>
+        <v>0.02293164469301701</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3874709606170654</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.5281234383583069</v>
       </c>
       <c r="W175" t="n">
-        <v>0.03563424572348595</v>
+        <v>0.01978311873972416</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3920910358428955</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.5216774940490723</v>
       </c>
       <c r="W176" t="n">
-        <v>0.06763464957475662</v>
+        <v>0.01679264940321445</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4573519229888916</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.3999788761138916</v>
       </c>
       <c r="W177" t="n">
-        <v>0.002279902808368206</v>
+        <v>0.003291666507720947</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3923280239105225</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.3990907371044159</v>
       </c>
       <c r="W178" t="n">
-        <v>0.0006402587168850005</v>
+        <v>4.573429032461718e-05</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3946781158447266</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.4010297060012817</v>
       </c>
       <c r="W179" t="n">
-        <v>0.01693041808903217</v>
+        <v>4.034269659314305e-05</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3937029838562012</v>
       </c>
       <c r="V180" t="n">
-        <v>0.975181519985199</v>
+        <v>0.5177795886993408</v>
       </c>
       <c r="W180" t="n">
-        <v>0.3381173014640808</v>
+        <v>0.01539500430226326</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4113798141479492</v>
       </c>
       <c r="V181" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.4001996219158173</v>
       </c>
       <c r="W181" t="n">
-        <v>0.3179086446762085</v>
+        <v>0.0001249967026524246</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8773300647735596</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.8688750267028809</v>
       </c>
       <c r="W182" t="n">
-        <v>0.0910259410738945</v>
+        <v>7.148766599129885e-05</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9169509410858154</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.4011068940162659</v>
       </c>
       <c r="W183" t="n">
-        <v>0.05319469794631004</v>
+        <v>0.2660950720310211</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8726620674133301</v>
       </c>
       <c r="V184" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.5280700325965881</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2440287172794342</v>
+        <v>0.1187436729669571</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8765661716461182</v>
       </c>
       <c r="V185" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.8733854293823242</v>
       </c>
       <c r="W185" t="n">
-        <v>0.04974779114127159</v>
+        <v>1.011712174658896e-05</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8574149608612061</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.5014998912811279</v>
       </c>
       <c r="W186" t="n">
-        <v>0.135186955332756</v>
+        <v>0.1266755312681198</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8837149143218994</v>
       </c>
       <c r="V187" t="n">
-        <v>0.417630136013031</v>
+        <v>0.4002819359302521</v>
       </c>
       <c r="W187" t="n">
-        <v>0.2172350138425827</v>
+        <v>0.2337074428796768</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8662068843841553</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.4035471975803375</v>
       </c>
       <c r="W188" t="n">
-        <v>0.161908358335495</v>
+        <v>0.2140539884567261</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8682329654693604</v>
       </c>
       <c r="V189" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.4025976061820984</v>
       </c>
       <c r="W189" t="n">
-        <v>0.01155895739793777</v>
+        <v>0.2168162912130356</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8881559371948242</v>
       </c>
       <c r="V190" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.3999201655387878</v>
       </c>
       <c r="W190" t="n">
-        <v>0.2665312588214874</v>
+        <v>0.2383741736412048</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8926899433135986</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.8760226964950562</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1346048265695572</v>
+        <v>0.0002777971094474196</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8605639934539795</v>
       </c>
       <c r="V192" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.5174558758735657</v>
       </c>
       <c r="W192" t="n">
-        <v>0.259151816368103</v>
+        <v>0.1177231818437576</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8759949207305908</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.8747426271438599</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1375561356544495</v>
+        <v>1.56823921315663e-06</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.9239978790283203</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.5162927508354187</v>
       </c>
       <c r="W194" t="n">
-        <v>0.07247837632894516</v>
+        <v>0.1662234663963318</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8740930557250977</v>
       </c>
       <c r="V195" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.3990463316440582</v>
       </c>
       <c r="W195" t="n">
-        <v>0.001289229257963598</v>
+        <v>0.2256693840026855</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8621790409088135</v>
       </c>
       <c r="V196" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.5217409133911133</v>
       </c>
       <c r="W196" t="n">
-        <v>0.2615495622158051</v>
+        <v>0.1158981174230576</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8700771331787109</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.3990847766399384</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1338230073451996</v>
+        <v>0.2218337953090668</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.9252641201019287</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.8705130219459534</v>
       </c>
       <c r="W198" t="n">
-        <v>0.07367881387472153</v>
+        <v>0.002997682662680745</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8725690841674805</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.5223416686058044</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1458055973052979</v>
+        <v>0.1226592436432838</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.880234956741333</v>
       </c>
       <c r="V200" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.4001898467540741</v>
       </c>
       <c r="W200" t="n">
-        <v>0.2583000063896179</v>
+        <v>0.2304433137178421</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>1.401460886001587</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.4004949629306793</v>
       </c>
       <c r="W201" t="n">
-        <v>0.8034706115722656</v>
+        <v>1.001932859420776</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5744049549102783</v>
       </c>
       <c r="V202" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.524354875087738</v>
       </c>
       <c r="W202" t="n">
-        <v>0.06744387000799179</v>
+        <v>0.002505010459572077</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5393190383911133</v>
       </c>
       <c r="V203" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.4001326262950897</v>
       </c>
       <c r="W203" t="n">
-        <v>0.1907405108213425</v>
+        <v>0.01937285810709</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5370819568634033</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.5161522030830383</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01426648814231157</v>
+        <v>0.0004380545869935304</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5194170475006104</v>
       </c>
       <c r="V205" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.5199066400527954</v>
       </c>
       <c r="W205" t="n">
-        <v>0.0789661705493927</v>
+        <v>2.397008529442246e-07</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5141060352325439</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.8855848908424377</v>
       </c>
       <c r="W206" t="n">
-        <v>0.0005473790806718171</v>
+        <v>0.1379965394735336</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5426201820373535</v>
       </c>
       <c r="V207" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.8688880801200867</v>
       </c>
       <c r="W207" t="n">
-        <v>0.02701999619603157</v>
+        <v>0.1064507439732552</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5196869373321533</v>
       </c>
       <c r="V208" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.87342768907547</v>
       </c>
       <c r="W208" t="n">
-        <v>0.2077912390232086</v>
+        <v>0.1251325160264969</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5132639408111572</v>
       </c>
       <c r="V209" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.8658652901649475</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0345165953040123</v>
+        <v>0.1243277117609978</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5155079364776611</v>
       </c>
       <c r="V210" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.5170322060585022</v>
       </c>
       <c r="W210" t="n">
-        <v>0.2113098353147507</v>
+        <v>2.323397666259552e-06</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5219659805297852</v>
       </c>
       <c r="V211" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.5261664390563965</v>
       </c>
       <c r="W211" t="n">
-        <v>0.0206243209540844</v>
+        <v>1.764385160640813e-05</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5216031074523926</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.3996283411979675</v>
       </c>
       <c r="W212" t="n">
-        <v>0.03155278041958809</v>
+        <v>0.01487784367054701</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5533528327941895</v>
       </c>
       <c r="V213" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.8741968274116516</v>
       </c>
       <c r="W213" t="n">
-        <v>0.0005272741545923054</v>
+        <v>0.1029408723115921</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5215380191802979</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.5167405605316162</v>
       </c>
       <c r="W214" t="n">
-        <v>0.02929878048598766</v>
+        <v>2.30156092584366e-05</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5205159187316895</v>
       </c>
       <c r="V215" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.8673446774482727</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01765341311693192</v>
+        <v>0.1202901899814606</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.521075963973999</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.8670508861541748</v>
       </c>
       <c r="W216" t="n">
-        <v>0.001844459678977728</v>
+        <v>0.1196986436843872</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5170080661773682</v>
       </c>
       <c r="V217" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.3999863266944885</v>
       </c>
       <c r="W217" t="n">
-        <v>0.08142238855361938</v>
+        <v>0.01369408797472715</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5734741687774658</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.533814013004303</v>
       </c>
       <c r="W218" t="n">
-        <v>0.006323428358882666</v>
+        <v>0.001572927925735712</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5216031074523926</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.8753358721733093</v>
       </c>
       <c r="W219" t="n">
-        <v>0.004798549693077803</v>
+        <v>0.1251268684864044</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.522554874420166</v>
       </c>
       <c r="V220" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.868015468120575</v>
       </c>
       <c r="W220" t="n">
-        <v>0.02919772081077099</v>
+        <v>0.1193430200219154</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5203990936279297</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.3999828398227692</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01056199800223112</v>
+        <v>0.01450007408857346</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3890118598937988</v>
       </c>
       <c r="V222" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.5290701985359192</v>
       </c>
       <c r="W222" t="n">
-        <v>0.09895545244216919</v>
+        <v>0.01961633749306202</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3902950286865234</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.523415207862854</v>
       </c>
       <c r="W223" t="n">
-        <v>0.01326006557792425</v>
+        <v>0.01772098243236542</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4469938278198242</v>
       </c>
       <c r="V224" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.8696193099021912</v>
       </c>
       <c r="W224" t="n">
-        <v>0.06361975520849228</v>
+        <v>0.1786122918128967</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.392413854598999</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.88651043176651</v>
       </c>
       <c r="W225" t="n">
-        <v>0.0126586128026247</v>
+        <v>0.2441314309835434</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.390031099319458</v>
       </c>
       <c r="V226" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.4002373516559601</v>
       </c>
       <c r="W226" t="n">
-        <v>0.001543063321150839</v>
+        <v>0.000104167585959658</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3930361270904541</v>
       </c>
       <c r="V227" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.8739269375801086</v>
       </c>
       <c r="W227" t="n">
-        <v>0.0964425802230835</v>
+        <v>0.231255978345871</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.39192795753479</v>
       </c>
       <c r="V228" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.3990659415721893</v>
       </c>
       <c r="W228" t="n">
-        <v>0.3412327766418457</v>
+        <v>5.095081723993644e-05</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3957130908966064</v>
       </c>
       <c r="V229" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.5225790143013</v>
       </c>
       <c r="W229" t="n">
-        <v>0.1918545216321945</v>
+        <v>0.01609496213495731</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3933560848236084</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.5247135162353516</v>
       </c>
       <c r="W230" t="n">
-        <v>0.01203641016036272</v>
+        <v>0.01725477539002895</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.392982006072998</v>
       </c>
       <c r="V231" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.5248572826385498</v>
       </c>
       <c r="W231" t="n">
-        <v>0.08991437405347824</v>
+        <v>0.01739108934998512</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4005930423736572</v>
       </c>
       <c r="V232" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.8745854496955872</v>
       </c>
       <c r="W232" t="n">
-        <v>0.0004703531449194998</v>
+        <v>0.2246688008308411</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3939211368560791</v>
       </c>
       <c r="V233" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.8566108345985413</v>
       </c>
       <c r="W233" t="n">
-        <v>0.06780719757080078</v>
+        <v>0.2140817493200302</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3942689895629883</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.4027798473834991</v>
       </c>
       <c r="W234" t="n">
-        <v>0.03950341790914536</v>
+        <v>7.243469735840335e-05</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3959071636199951</v>
       </c>
       <c r="V235" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.3993476927280426</v>
       </c>
       <c r="W235" t="n">
-        <v>0.001940705114975572</v>
+        <v>1.183724089059979e-05</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3949201107025146</v>
       </c>
       <c r="V236" t="n">
-        <v>0.590633749961853</v>
+        <v>0.3991744816303253</v>
       </c>
       <c r="W236" t="n">
-        <v>0.03830382972955704</v>
+        <v>1.809967216104269e-05</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3929429054260254</v>
       </c>
       <c r="V237" t="n">
-        <v>0.405481219291687</v>
+        <v>0.8783386945724487</v>
       </c>
       <c r="W237" t="n">
-        <v>0.0001572093169670552</v>
+        <v>0.2356090694665909</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3893389701843262</v>
       </c>
       <c r="V238" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.516304612159729</v>
       </c>
       <c r="W238" t="n">
-        <v>0.1704681813716888</v>
+        <v>0.01612027361989021</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3937878608703613</v>
       </c>
       <c r="V239" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.522411584854126</v>
       </c>
       <c r="W239" t="n">
-        <v>0.09888207912445068</v>
+        <v>0.01654406264424324</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3973958492279053</v>
       </c>
       <c r="V240" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.5162258744239807</v>
       </c>
       <c r="W240" t="n">
-        <v>0.09652278572320938</v>
+        <v>0.01412057504057884</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3936131000518799</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.5218873620033264</v>
       </c>
       <c r="W241" t="n">
-        <v>0.06775707006454468</v>
+        <v>0.01645428687334061</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.981956958770752</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.5159292817115784</v>
       </c>
       <c r="W242" t="n">
-        <v>0.3184310495853424</v>
+        <v>0.2171818017959595</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.910973072052002</v>
       </c>
       <c r="V243" t="n">
-        <v>0.653571605682373</v>
+        <v>0.3999225199222565</v>
       </c>
       <c r="W243" t="n">
-        <v>0.06625551730394363</v>
+        <v>0.2611727118492126</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8742811679840088</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.5262879133224487</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1214618980884552</v>
+        <v>0.1210993081331253</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8757209777832031</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.8732688426971436</v>
       </c>
       <c r="W245" t="n">
-        <v>0.2098468989133835</v>
+        <v>6.012966423440957e-06</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9272799491882324</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.8769620656967163</v>
       </c>
       <c r="W246" t="n">
-        <v>0.0754798948764801</v>
+        <v>0.002531889360398054</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8690290451049805</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.8612393140792847</v>
       </c>
       <c r="W247" t="n">
-        <v>0.143346443772316</v>
+        <v>6.06799112574663e-05</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8619790077209473</v>
       </c>
       <c r="V248" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.4002540707588196</v>
       </c>
       <c r="W248" t="n">
-        <v>0.003779957303777337</v>
+        <v>0.2131899148225784</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8766250610351562</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.40271857380867</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1723058372735977</v>
+        <v>0.2245873659849167</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.926807165145874</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.5211248993873596</v>
       </c>
       <c r="W250" t="n">
-        <v>0.190526619553566</v>
+        <v>0.1645780950784683</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8749849796295166</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.8623959422111511</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1646648198366165</v>
+        <v>0.0001584838610142469</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.873927116394043</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.8730825185775757</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1365065425634384</v>
+        <v>7.133454573704512e-07</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.9045891761779785</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.3990882635116577</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1602333337068558</v>
+        <v>0.2555311620235443</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9227340221405029</v>
       </c>
       <c r="V254" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.4002186357975006</v>
       </c>
       <c r="W254" t="n">
-        <v>0.00866458285599947</v>
+        <v>0.2730223536491394</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8764941692352295</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.8807710409164429</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2105237990617752</v>
+        <v>1.829163193178829e-05</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9018480777740479</v>
       </c>
       <c r="V256" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.4027565717697144</v>
       </c>
       <c r="W256" t="n">
-        <v>0.005434898659586906</v>
+        <v>0.2490923255681992</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8710629940032959</v>
       </c>
       <c r="V257" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.5264921188354492</v>
       </c>
       <c r="W257" t="n">
-        <v>0.004412497859448195</v>
+        <v>0.1187290847301483</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9148938655853271</v>
       </c>
       <c r="V258" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.5244116187095642</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1524765640497208</v>
+        <v>0.1524763852357864</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8792588710784912</v>
       </c>
       <c r="V259" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.5158547163009644</v>
       </c>
       <c r="W259" t="n">
-        <v>0.00579720688983798</v>
+        <v>0.1320625841617584</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8634829521179199</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.8735355734825134</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1596998274326324</v>
+        <v>0.0001010551932267845</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8691620826721191</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.5153666734695435</v>
       </c>
       <c r="W261" t="n">
-        <v>0.166219174861908</v>
+        <v>0.1251711845397949</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5913510322570801</v>
       </c>
       <c r="V262" t="n">
-        <v>0.417632520198822</v>
+        <v>0.3998988270759583</v>
       </c>
       <c r="W262" t="n">
-        <v>0.03017812222242355</v>
+        <v>0.03665394708514214</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5278339385986328</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.4002089202404022</v>
       </c>
       <c r="W263" t="n">
-        <v>0.003437328850850463</v>
+        <v>0.01628814451396465</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5258190631866455</v>
       </c>
       <c r="V264" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.8651396632194519</v>
       </c>
       <c r="W264" t="n">
-        <v>0.09495895355939865</v>
+        <v>0.1151384711265564</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5403730869293213</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.515574038028717</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01506467629224062</v>
+        <v>0.0006149928085505962</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5224969387054443</v>
       </c>
       <c r="V266" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.3990632593631744</v>
       </c>
       <c r="W266" t="n">
-        <v>0.0294957309961319</v>
+        <v>0.01523587293922901</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5204629898071289</v>
       </c>
       <c r="V267" t="n">
-        <v>0.490833193063736</v>
+        <v>0.5262095332145691</v>
       </c>
       <c r="W267" t="n">
-        <v>0.0008779248455539346</v>
+        <v>3.302275945316069e-05</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5326411724090576</v>
       </c>
       <c r="V268" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.8805945515632629</v>
       </c>
       <c r="W268" t="n">
-        <v>0.02380495145916939</v>
+        <v>0.1210715547204018</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.526104211807251</v>
       </c>
       <c r="V269" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.8727981448173523</v>
       </c>
       <c r="W269" t="n">
-        <v>0.002518668305128813</v>
+        <v>0.1201966851949692</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5166599750518799</v>
       </c>
       <c r="V270" t="n">
-        <v>0.372467577457428</v>
+        <v>0.521245539188385</v>
       </c>
       <c r="W270" t="n">
-        <v>0.02079144679009914</v>
+        <v>2.102739927067887e-05</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5227890014648438</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.4028178453445435</v>
       </c>
       <c r="W271" t="n">
-        <v>0.0003173485165461898</v>
+        <v>0.01439307816326618</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5425238609313965</v>
       </c>
       <c r="V272" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.4004490971565247</v>
       </c>
       <c r="W272" t="n">
-        <v>0.02695370651781559</v>
+        <v>0.02018523775041103</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5768120288848877</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.885051965713501</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01330562401562929</v>
+        <v>0.09501186013221741</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5250701904296875</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.3998964428901672</v>
       </c>
       <c r="W274" t="n">
-        <v>0.001184766064397991</v>
+        <v>0.01566846668720245</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5311338901519775</v>
       </c>
       <c r="V275" t="n">
-        <v>0.801636278629303</v>
+        <v>0.5163632035255432</v>
       </c>
       <c r="W275" t="n">
-        <v>0.07317154109477997</v>
+        <v>0.0002181731833843514</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5213170051574707</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.3990653157234192</v>
       </c>
       <c r="W276" t="n">
-        <v>0.003622476477175951</v>
+        <v>0.01494547538459301</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5218639373779297</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.8753443956375122</v>
       </c>
       <c r="W277" t="n">
-        <v>0.003678833600133657</v>
+        <v>0.1249484345316887</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5229361057281494</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.3990741670131683</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01110837422311306</v>
+        <v>0.01534178014844656</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.522878885269165</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.8723495602607727</v>
       </c>
       <c r="W279" t="n">
-        <v>0.002846149494871497</v>
+        <v>0.1221297532320023</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5235879421234131</v>
       </c>
       <c r="V280" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.5228331685066223</v>
       </c>
       <c r="W280" t="n">
-        <v>0.09647113084793091</v>
+        <v>5.696832090507087e-07</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5196161270141602</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.3990723192691803</v>
       </c>
       <c r="W281" t="n">
-        <v>0.003920486196875572</v>
+        <v>0.01453080959618092</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4017729759216309</v>
       </c>
       <c r="V282" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.523418128490448</v>
       </c>
       <c r="W282" t="n">
-        <v>0.00384949054569006</v>
+        <v>0.01479754317551851</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.398914098739624</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.4034132063388824</v>
       </c>
       <c r="W283" t="n">
-        <v>0.06519950926303864</v>
+        <v>2.024196874117479e-05</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4474029541015625</v>
       </c>
       <c r="V284" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.4025035202503204</v>
       </c>
       <c r="W284" t="n">
-        <v>0.06024070829153061</v>
+        <v>0.002015959238633513</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.39711594581604</v>
       </c>
       <c r="V285" t="n">
-        <v>0.490329772233963</v>
+        <v>0.4002327024936676</v>
       </c>
       <c r="W285" t="n">
-        <v>0.008688817732036114</v>
+        <v>9.714171937957872e-06</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3987820148468018</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.8921399712562561</v>
       </c>
       <c r="W286" t="n">
-        <v>0.01582535915076733</v>
+        <v>0.2434020787477493</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3974170684814453</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.4006324112415314</v>
       </c>
       <c r="W287" t="n">
-        <v>0.01131970714777708</v>
+        <v>1.033842909237137e-05</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3986580371856689</v>
       </c>
       <c r="V288" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.8922268748283386</v>
       </c>
       <c r="W288" t="n">
-        <v>0.01121719367802143</v>
+        <v>0.2436102032661438</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4135520458221436</v>
       </c>
       <c r="V289" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.5226978063583374</v>
       </c>
       <c r="W289" t="n">
-        <v>0.00394404074177146</v>
+        <v>0.01191279664635658</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3954870700836182</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.5210545063018799</v>
       </c>
       <c r="W290" t="n">
-        <v>0.06659987568855286</v>
+        <v>0.01576718129217625</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3995430469512939</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.5200763940811157</v>
       </c>
       <c r="W291" t="n">
-        <v>0.06464620679616928</v>
+        <v>0.01452828757464886</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4001998901367188</v>
       </c>
       <c r="V292" t="n">
-        <v>0.653493344783783</v>
+        <v>0.5234294533729553</v>
       </c>
       <c r="W292" t="n">
-        <v>0.06415757536888123</v>
+        <v>0.0151855256408453</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3985741138458252</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.5294474363327026</v>
       </c>
       <c r="W293" t="n">
-        <v>0.03153084591031075</v>
+        <v>0.01712782680988312</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3945510387420654</v>
       </c>
       <c r="V294" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.5249255299568176</v>
       </c>
       <c r="W294" t="n">
-        <v>0.3376108407974243</v>
+        <v>0.01699750870466232</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.403709888458252</v>
       </c>
       <c r="V295" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.3991950452327728</v>
       </c>
       <c r="W295" t="n">
-        <v>0.1852215975522995</v>
+        <v>2.038380989688449e-05</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3948919773101807</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.8666497468948364</v>
       </c>
       <c r="W296" t="n">
-        <v>0.0005130334757268429</v>
+        <v>0.22255539894104</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4047031402587891</v>
       </c>
       <c r="V297" t="n">
-        <v>0.802345335483551</v>
+        <v>0.8727733492851257</v>
       </c>
       <c r="W297" t="n">
-        <v>0.1581193208694458</v>
+        <v>0.2190897166728973</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.39634108543396</v>
       </c>
       <c r="V298" t="n">
-        <v>0.654336154460907</v>
+        <v>0.523414134979248</v>
       </c>
       <c r="W298" t="n">
-        <v>0.06656145304441452</v>
+        <v>0.0161475595086813</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3985579013824463</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.5157288312911987</v>
       </c>
       <c r="W299" t="n">
-        <v>0.0003641731454990804</v>
+        <v>0.01372902654111385</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3948500156402588</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.3993712365627289</v>
       </c>
       <c r="W300" t="n">
-        <v>0.06669875979423523</v>
+        <v>2.044143911916763e-05</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3982090950012207</v>
       </c>
       <c r="V301" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.5237778425216675</v>
       </c>
       <c r="W301" t="n">
-        <v>0.06378234922885895</v>
+        <v>0.01576751098036766</v>
       </c>
     </row>
     <row r="302" spans="1:23">
